--- a/tables/Table_S5_trycycler_assemblies.xlsx
+++ b/tables/Table_S5_trycycler_assemblies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Polypolish_paper/GitHub_repo/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F95FC6F-9FF4-064A-81E2-D54AC2C412B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7F59D-FA34-5446-996B-5677A9FFE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10740" yWindow="-18980" windowWidth="25360" windowHeight="17760" xr2:uid="{F93A329D-624D-7045-B20F-B5241CBAB250}"/>
   </bookViews>
@@ -129,7 +129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table S4:</t>
+      <t>Table S5:</t>
     </r>
     <r>
       <rPr>
